--- a/inputs/ac.xlsx
+++ b/inputs/ac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573276C1-7A07-41F2-8599-1470C0288197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CAC0C-B595-41BD-83B7-8957E87727B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
         <v>6.18</v>
       </c>
       <c r="B2">
-        <v>405156</v>
+        <v>368324</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +413,7 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.25*0.2)</f>
-        <v>384898.19999999995</v>
+        <v>349907.8</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +443,7 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.25*0.4)</f>
-        <v>364640.4</v>
+        <v>331491.60000000003</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.25*0.6)</f>
-        <v>344382.6</v>
+        <v>313075.39999999997</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.25*0.8)</f>
-        <v>324124.80000000005</v>
+        <v>294659.20000000001</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
       </c>
       <c r="B2">
         <f>'2025'!B2*(1-0.25*1)</f>
-        <v>303867</v>
+        <v>276243</v>
       </c>
     </row>
   </sheetData>
